--- a/02_MasterWifoMannheim/99_Backup/Course135.xlsx
+++ b/02_MasterWifoMannheim/99_Backup/Course135.xlsx
@@ -1,136 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailunimannheimde-my.sharepoint.com/personal/pstapf_mail_uni-mannheim_de/Documents/Uni/Master/Masterarbeit/Course_Suggestion/02_MasterWifoMannheim/03_Courses/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_2B59D2BFD32051265F592811593388744D8BF906" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{563424FF-55D7-4300-B7B1-3C6CEEFE54B9}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
-  <si>
-    <t>Modul</t>
-  </si>
-  <si>
-    <t>MKT 511 Marketing Analytics</t>
-  </si>
-  <si>
-    <t>Lerninhalte</t>
-  </si>
-  <si>
-    <t>Aufgrund der Digitalisierung des Lebens der Verbraucher sowie der Funktionen und Prozesse in Unternehmen verfügen Unternehmen heute über eine große unterschiedlicher individueller Ebene. Doch die Menge der verfügbaren immer zu besseren Entscheidungen. Die Herausforderung besteht darin, zu wissen, wie man Daten analysieren und interpretieren muss. Marketingverantwortlichen wird zunehmend erwartet, dass sie ihre Entscheidungen mit Hilfe der Analysen von Daten fundieren. Marketing Marketings genau zu beziffern, um anhand der Ergebnisse die Effektivität zu maximieren und die Rentabilität (ROI) des Marketings zu optimieren. Verschiedene Methoden erlauben es Präferenzen und Trends der welche für zukünftige Marketing- und sind.</t>
-  </si>
-  <si>
-    <t>Lern- und Qualifikationsziele</t>
-  </si>
-  <si>
-    <t>In diesem Kurs lernen die Teilnehmer anhand von praktischen Anwendungen, wie Daten im Marketing genutzt werden können um Wettbewerber besser zu verstehen. Dieser Methoden von Statistik bis hin zum maschinellen Optimierung von Marketingaktivitäten und -kampagnen. Teilnehmer verlassen den Kurs mit einem soliden Verständnis dafür, wie Marketing und zur systematischen Allokation von Ressourcen eingesetzt werden können.</t>
-  </si>
-  <si>
-    <t>Voraussetzungen</t>
-  </si>
-  <si>
-    <t>Anmeldepflicht:</t>
-  </si>
-  <si>
-    <t>Weitere Infos zur Anmeldung:</t>
-  </si>
-  <si>
-    <t>Lehrveranstaltungen und -formPräsenzstudiumSelbststudium Vorlesung 2 6 6 Übung 2</t>
-  </si>
-  <si>
-    <t>ECTS</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>Prüfungsform und -umfang</t>
-  </si>
-  <si>
-    <t>Schriftliche Prüfung (90 min.)</t>
-  </si>
-  <si>
-    <t>Vorleistungen</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>Dozent(en)/Modulverantwortlicher</t>
-  </si>
-  <si>
-    <t>Prof. Dr. Florian Stahl</t>
-  </si>
-  <si>
-    <t>Dauer des Moduls</t>
-  </si>
-  <si>
-    <t>1 Semester</t>
-  </si>
-  <si>
-    <t>Angebotsturnus</t>
-  </si>
-  <si>
-    <t>FSS</t>
-  </si>
-  <si>
-    <t>Sprache</t>
-  </si>
-  <si>
-    <t>Englisch</t>
-  </si>
-  <si>
-    <t>Programmspezifische Lernziele</t>
-  </si>
-  <si>
-    <t>Note</t>
-  </si>
-  <si>
-    <t>Benotet</t>
-  </si>
-  <si>
-    <t>Verwendbarkeit</t>
-  </si>
-  <si>
-    <t>M.Sc. MMM, M.Sc. MMBR, M.Sc. Wipäd, M.Sc. Wirt.Inf., M.A. K&amp;W, M.Sc. VWL, LL.M., M.Sc. Data Sience</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -145,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -469,140 +420,205 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
+    <row r="1">
+      <c r="A1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
+      <c r="B1" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>27</v>
-      </c>
-      <c r="B17" t="s">
-        <v>28</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Modul</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>MKT 511 Marketing Analytics</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Lerninhalte</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Aufgrund der Digitalisierung des Lebens der Verbraucher sowie der Funktionen und Prozesse in Unternehmen verfügen Unternehmen heute über eine große unterschiedlicher individueller Ebene. Doch die Menge der verfügbaren immer zu besseren Entscheidungen. Die Herausforderung besteht darin, zu wissen, wie man Daten analysieren und interpretieren muss. Marketingverantwortlichen wird zunehmend erwartet, dass sie ihre Entscheidungen mit Hilfe der Analysen von Daten fundieren. Marketing Marketings genau zu beziffern, um anhand der Ergebnisse die Effektivität zu maximieren und die Rentabilität (ROI) des Marketings zu optimieren. Verschiedene Methoden erlauben es Präferenzen und Trends der welche für zukünftige Marketing- und sind.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Lern- und Qualifikationsziele</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>In diesem Kurs lernen die Teilnehmer anhand von praktischen Anwendungen, wie Daten im Marketing genutzt werden können um Wettbewerber besser zu verstehen. Dieser Methoden von Statistik bis hin zum maschinellen Optimierung von Marketingaktivitäten und -kampagnen. Teilnehmer verlassen den Kurs mit einem soliden Verständnis dafür, wie Marketing und zur systematischen Allokation von Ressourcen eingesetzt werden können.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Voraussetzungen</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Anmeldepflicht:</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Weitere Infos zur Anmeldung:</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Lehrveranstaltungen und -formPräsenzstudiumSelbststudium Vorlesung 2 6 6 Übung 2</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ECTS</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Prüfungsform und -umfang</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Schriftliche Prüfung (90 min.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Vorleistungen</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Dozent(en)/Modulverantwortlicher</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Prof. Dr. Florian Stahl</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Dauer des Moduls</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>1 Semester</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Offering</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>SSS</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Sprache</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Englisch</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Programmspezifische Lernziele</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Note</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Benotet</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Verwendbarkeit</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>M.Sc. MMM, M.Sc. MMBR, M.Sc. Wipäd, M.Sc. Wirt.Inf., M.A. K&amp;W, M.Sc. VWL, LL.M., M.Sc. Data Sience</t>
+        </is>
       </c>
     </row>
   </sheetData>
